--- a/Homework/HW4/prob2.xlsx
+++ b/Homework/HW4/prob2.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanbaep2/Desktop/FIN513/Homework/HW4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park-wanbae/Desktop/MFE/2018-1/FIN513/Homework/HW4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20900" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -89,16 +89,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -125,17 +132,20 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -408,12 +418,12 @@
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>100</v>
       </c>
@@ -441,7 +451,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -458,7 +468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>90</v>
       </c>
@@ -476,7 +486,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -487,7 +497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8">
         <f>EXP($D$2 * SQRT($E$5))</f>
         <v>1.0618365465453596</v>
@@ -501,7 +511,7 @@
         <v>0.38243879108334305</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -509,7 +519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="B11">
         <v>0</v>
       </c>
@@ -544,7 +554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>0</v>
       </c>
@@ -575,7 +585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>1</v>
       </c>
@@ -599,7 +609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -619,7 +629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>3</v>
       </c>
@@ -635,7 +645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>4</v>
       </c>
@@ -647,7 +657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -679,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>0</v>
       </c>
@@ -691,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>1</v>
       </c>
@@ -703,18 +713,18 @@
         <v>1</v>
       </c>
       <c r="L21" s="3">
-        <f>EXP(-$B$2 * $E$5) * ($C$8 * M21 + (1 - $C$8) * M22) + 10</f>
-        <v>15.162642081370185</v>
+        <f>(1/(1+$B$2*0.25)*($C$8*M21+(1-$C$8)*M22)+10)</f>
+        <v>15.162674294306804</v>
       </c>
       <c r="M21" s="3">
-        <f>EXP(-$B$2 * $E$5) * ($C$8 * N21 + (1 - $C$8) * N22)</f>
-        <v>9.9750312239746002</v>
+        <f>(1/(1+$B$2*0.25)*($C$8*N21+(1-$C$8)*N22))</f>
+        <v>9.9750623441396513</v>
       </c>
       <c r="N21" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>2</v>
       </c>
@@ -727,14 +737,14 @@
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3">
-        <f>EXP(-$B$2 * $E$5) * ($C$8 * N22 + (1 - $C$8) * N23)</f>
-        <v>2.2033863709711952</v>
+        <f>(1/(1+$B$2*0.25)*($C$8*N22+(1-$C$8)*N23))</f>
+        <v>2.2033932451098313</v>
       </c>
       <c r="N22" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="I23">
         <v>3</v>
       </c>
@@ -745,12 +755,12 @@
         <v>-2.6159126565684971</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="I24">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -788,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>0</v>
       </c>
@@ -800,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>1</v>
       </c>
@@ -812,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>2</v>
       </c>
@@ -824,22 +834,22 @@
         <v>2</v>
       </c>
       <c r="L30" s="3">
-        <f>EXP(-$B$2 * $E$5) * ($C$8 * M30 + (1 - $C$8) * M31) + D30</f>
-        <v>-10.994584409242457</v>
+        <f>(1/(1+$B$2*0.25)*($C$8*M30+(1-$C$8)*M31)) + D30</f>
+        <v>-10.994636688989504</v>
       </c>
       <c r="M30" s="3">
-        <f>EXP(-$B$2 * $E$5) * ($C$8 * N30 + (1 - $C$8) * N31)</f>
-        <v>2.2033863709711952</v>
+        <f>(1/(1+$B$2*0.25)*($C$8*N30+(1-$C$8)*N31))</f>
+        <v>2.2033932451098313</v>
       </c>
       <c r="N30" s="3">
         <v>10</v>
       </c>
       <c r="P30" s="3">
         <f>EXP(-$B$2 * $E$5) * ($C$8 * M30 + (1 - $C$8) * M31)</f>
-        <v>-8.3786717526739594</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <v>-8.3786978925067075</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>3</v>
       </c>
@@ -848,15 +858,15 @@
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3">
-        <f>EXP(-$B$2 * $E$5) * ($C$8 * N31 + (1 - $C$8) * N32)</f>
-        <v>-14.965812171808558</v>
+        <f>(1/(1+$B$2*0.25)*($C$8*N31+(1-$C$8)*N32))</f>
+        <v>-14.965858862243349</v>
       </c>
       <c r="N31" s="3">
         <f>-2 * ($A$5 - F15)</f>
         <v>-2.6159126565684971</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>4</v>
       </c>
@@ -870,7 +880,7 @@
         <v>-22.674427786689307</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -890,56 +900,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>0</v>
       </c>
       <c r="B37" s="3">
-        <f>EXP(-$B$2 * $E$5) * ($C$8 * C37 + (1 - $C$8) * C38)</f>
-        <v>5.8648621988739418</v>
+        <f>(1/(1+$B$2*0.25)*($C$8*C37+(1-$C$8)*C38))</f>
+        <v>5.8648940944381991</v>
       </c>
       <c r="C37" s="3">
-        <f>EXP(-$B$2 * $E$5) * ($C$8 * D37 + (1 - $C$8) * D38)</f>
-        <v>16.970156927528439</v>
+        <f>(1/(1+$B$2*0.25)*($C$8*D37+(1-$C$8)*D38))</f>
+        <v>16.970229714981034</v>
       </c>
       <c r="D37">
         <f>L12</f>
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="C38" s="3">
-        <f>EXP(-$B$2 * $E$5) * ($C$8 * D38 + (1 - $C$8) * D39)</f>
-        <v>-0.98857181068971289</v>
+        <f>(1/(1+$B$2*0.25)*($C$8*D38+(1-$C$8)*D39))</f>
+        <v>-0.98859481151781781</v>
       </c>
       <c r="D38" s="3">
         <f>L21</f>
-        <v>15.162642081370185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15.162674294306804</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="D39" s="3">
         <f>L30</f>
-        <v>-10.994584409242457</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-10.994636688989504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>